--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,54 @@
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -94,96 +103,99 @@
     <t>shit</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -193,31 +205,49 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>growth</t>
@@ -226,36 +256,18 @@
     <t>ready</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
@@ -271,7 +283,10 @@
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -629,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -748,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -816,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,16 +884,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -998,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,28 +1034,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L9">
+        <v>350</v>
+      </c>
+      <c r="M9">
+        <v>350</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>33</v>
-      </c>
-      <c r="M9">
-        <v>33</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8943661971830986</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7131782945736435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8936170212765957</v>
+        <v>0.8875</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>363</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>363</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,16 +1434,16 @@
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.8671875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6772486772486772</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C18">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K18">
         <v>0.8620689655172413</v>
@@ -1498,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6470588235294118</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <v>0.8611111111111112</v>
@@ -1548,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6410256410256411</v>
+        <v>0.675</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,38 +1613,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C21">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21">
-        <v>0.8253968253968254</v>
-      </c>
-      <c r="L21">
-        <v>52</v>
-      </c>
-      <c r="M21">
-        <v>52</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6241610738255033</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.8214285714285714</v>
@@ -1698,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6181818181818182</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6129032258064516</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.775</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5945945945945946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.7714285714285715</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5861111111111111</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C26">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D26">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.7708333333333334</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,16 +1934,16 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4821428571428572</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,38 +2013,38 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.48</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29">
+        <v>0.72</v>
+      </c>
+      <c r="L29">
         <v>36</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>36</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>39</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.7588235294117647</v>
-      </c>
-      <c r="L29">
-        <v>258</v>
-      </c>
-      <c r="M29">
-        <v>258</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,13 +2063,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4545454545454545</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2066,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,13 +2113,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3506493506493507</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2116,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2163,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2817460317460317</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C32">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.7322033898305085</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2213,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2444444444444444</v>
+        <v>0.3375</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.7154811715481172</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L33">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2263,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1045576407506702</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.7127659574468085</v>
+        <v>0.7</v>
       </c>
       <c r="L34">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,21 +2305,45 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.2976190476190476</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>177</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.7078651685393258</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L35">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2316,15 +2355,39 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>65</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>308</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
         <v>19</v>
@@ -2342,15 +2405,39 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01136842105263158</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>0.13</v>
+      </c>
+      <c r="F37">
+        <v>0.87</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2348</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L37">
         <v>19</v>
@@ -2368,21 +2455,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.007402639201802382</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3084</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.6923076923076923</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2394,21 +2505,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.6862745098039216</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2420,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2446,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.6285714285714286</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2472,21 +2583,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.5476190476190477</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2498,12 +2609,12 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K43">
         <v>0.5111111111111111</v>
@@ -2529,16 +2640,16 @@
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.4794520547945205</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2550,21 +2661,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.4358974358974359</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2576,21 +2687,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2602,21 +2713,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.3114754098360656</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2628,7 +2739,33 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>0.0225</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
